--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1043859.552714402</v>
+        <v>1076310.363593526</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253918</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2460204.061553705</v>
+        <v>698313.6830760725</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7334994.365211621</v>
+        <v>7957920.049506297</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>232.9553852002523</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>217.0772816663267</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +819,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>55.20150031394591</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>40.7244216301258</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>363.2338604017909</v>
+        <v>199.3014844041359</v>
       </c>
     </row>
     <row r="6">
@@ -1054,10 +1056,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>132.7982881284979</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1111,7 +1113,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1120,7 +1122,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>148.8355423567369</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1139,10 +1141,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>126.930527707746</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>70.36806076804453</v>
       </c>
       <c r="G8" t="n">
         <v>0.2956717864458369</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>14.26000286531851</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>39.39633626821598</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1382,10 +1384,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>140.0871666311209</v>
+        <v>221.4655660477381</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1531,7 +1533,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>51.58543740429418</v>
+        <v>51.58543740429434</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1607,13 +1609,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -1622,10 +1624,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1667,13 +1669,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>284.4554049657253</v>
       </c>
       <c r="X14" t="n">
-        <v>80.33072626801177</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1768,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>51.58543740429418</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100375</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -1901,7 +1903,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250128</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -2002,25 +2004,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>57.24387488545717</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2239,25 +2241,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>103.8603782851912</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2302,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>122.9177036806385</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>127.5302873014258</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>133.9073134702962</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2539,10 +2541,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2716,19 +2718,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>51.58543740429417</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2776,10 +2778,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>158.2937454088625</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2953,16 +2955,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -2998,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>124.2290557831222</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>260.444681387164</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3196,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>4.378995526348206</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.04121948802891</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3320,7 +3322,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>124.734368464441</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3430,19 +3432,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3484,13 +3486,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>173.2846230762509</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3557,7 +3559,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -3661,25 +3663,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>51.69511841098299</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>156.3950745845505</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>10.94709254508563</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -3806,7 +3808,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>293.3118661077274</v>
       </c>
     </row>
     <row r="42">
@@ -3898,10 +3900,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,13 +3912,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3955,7 +3957,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>114.8840701032917</v>
+        <v>247.7161059405519</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3964,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3983,19 +3985,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>147.7993290726206</v>
       </c>
       <c r="V44" t="n">
-        <v>100.5868026779406</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4135,7 +4137,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4198,10 +4200,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>127.1775712042722</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>116.7770917239385</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1089.133930720603</v>
+        <v>1874.833966332469</v>
       </c>
       <c r="C2" t="n">
-        <v>853.8254608213581</v>
+        <v>1851.973640386173</v>
       </c>
       <c r="D2" t="n">
-        <v>834.5732440467624</v>
+        <v>1632.703658905035</v>
       </c>
       <c r="E2" t="n">
-        <v>812.636708235024</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F2" t="n">
-        <v>791.5529304648283</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G2" t="n">
-        <v>387.2138680542769</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H2" t="n">
-        <v>89.34548952831176</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J2" t="n">
-        <v>417.0520770886785</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>583.4696253673028</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L2" t="n">
-        <v>1257.271276480617</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="M2" t="n">
-        <v>1931.072927593931</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N2" t="n">
-        <v>2604.874578707245</v>
+        <v>2059.098288819457</v>
       </c>
       <c r="O2" t="n">
-        <v>2604.874578707245</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P2" t="n">
-        <v>2604.874578707245</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q2" t="n">
-        <v>2604.874578707245</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S2" t="n">
-        <v>2722.430913589148</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T2" t="n">
-        <v>2722.430913589148</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U2" t="n">
-        <v>2722.430913589148</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V2" t="n">
-        <v>2722.430913589148</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W2" t="n">
-        <v>2326.039563889495</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="X2" t="n">
-        <v>1914.319565057242</v>
+        <v>1891.938792588301</v>
       </c>
       <c r="Y2" t="n">
-        <v>1508.982295012133</v>
+        <v>1890.641926583595</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8784832918694</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G3" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H3" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I3" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J3" t="n">
-        <v>54.44861827178296</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K3" t="n">
-        <v>54.44861827178296</v>
+        <v>669.8354755761781</v>
       </c>
       <c r="L3" t="n">
-        <v>515.5329466256644</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="M3" t="n">
-        <v>515.5329466256644</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="N3" t="n">
-        <v>1189.334597738979</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O3" t="n">
-        <v>1863.136248852293</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P3" t="n">
-        <v>1863.136248852293</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q3" t="n">
-        <v>1863.136248852293</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1015.339133388241</v>
+        <v>682.051685853877</v>
       </c>
       <c r="C4" t="n">
-        <v>1015.339133388241</v>
+        <v>510.0791227327929</v>
       </c>
       <c r="D4" t="n">
-        <v>852.0223605150118</v>
+        <v>454.3200315065849</v>
       </c>
       <c r="E4" t="n">
-        <v>685.8141546678653</v>
+        <v>454.3200315065849</v>
       </c>
       <c r="F4" t="n">
-        <v>685.8141546678653</v>
+        <v>454.3200315065849</v>
       </c>
       <c r="G4" t="n">
-        <v>685.8141546678653</v>
+        <v>288.0630618008171</v>
       </c>
       <c r="H4" t="n">
-        <v>542.0178861760197</v>
+        <v>144.2667933089715</v>
       </c>
       <c r="I4" t="n">
-        <v>542.0178861760197</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="J4" t="n">
-        <v>599.5092144001777</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>826.0368156060149</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>1180.726136900436</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M4" t="n">
-        <v>1571.911931870686</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N4" t="n">
-        <v>1949.403442746722</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>2304.831571426485</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P4" t="n">
-        <v>2595.430783348386</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R4" t="n">
-        <v>2722.430913589148</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S4" t="n">
-        <v>2552.295866108283</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T4" t="n">
-        <v>2511.160086683914</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U4" t="n">
-        <v>2230.975638184218</v>
+        <v>1897.688190649854</v>
       </c>
       <c r="V4" t="n">
-        <v>1949.264170792246</v>
+        <v>1615.976723257882</v>
       </c>
       <c r="W4" t="n">
-        <v>1674.411766964759</v>
+        <v>1341.124319430395</v>
       </c>
       <c r="X4" t="n">
-        <v>1431.847870410565</v>
+        <v>1098.560422876201</v>
       </c>
       <c r="Y4" t="n">
-        <v>1205.505102100307</v>
+        <v>872.2176545659427</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>543.92053698516</v>
+        <v>1270.775797585523</v>
       </c>
       <c r="C5" t="n">
-        <v>117.01980699846</v>
+        <v>1247.915471639227</v>
       </c>
       <c r="D5" t="n">
-        <v>97.76759022386436</v>
+        <v>1228.663254864631</v>
       </c>
       <c r="E5" t="n">
-        <v>75.83105441212597</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F5" t="n">
-        <v>54.74727664193027</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G5" t="n">
-        <v>54.44861827178296</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H5" t="n">
-        <v>54.44861827178296</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K5" t="n">
-        <v>54.44861827178296</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L5" t="n">
-        <v>728.2502693850971</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M5" t="n">
-        <v>728.2502693850971</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N5" t="n">
-        <v>1402.051920498411</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O5" t="n">
-        <v>1592.543782971651</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P5" t="n">
-        <v>2266.345434084965</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S5" t="n">
-        <v>2618.063619462288</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T5" t="n">
-        <v>2397.138048506922</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>2138.783139103334</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V5" t="n">
-        <v>2138.783139103334</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W5" t="n">
-        <v>1742.391789403681</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="X5" t="n">
-        <v>1330.671790571428</v>
+        <v>1487.898388547897</v>
       </c>
       <c r="Y5" t="n">
-        <v>963.76890127669</v>
+        <v>1286.583757836649</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>201.8784832918694</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H6" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I6" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J6" t="n">
-        <v>326.146107551374</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>326.146107551374</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="L6" t="n">
-        <v>999.9477586646882</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="M6" t="n">
-        <v>999.9477586646882</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="N6" t="n">
-        <v>999.9477586646882</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="O6" t="n">
-        <v>1673.749409778002</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="P6" t="n">
-        <v>1781.11693876759</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>1781.11693876759</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>636.2429878502045</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C7" t="n">
-        <v>464.2704247291205</v>
+        <v>351.6112664143224</v>
       </c>
       <c r="D7" t="n">
-        <v>464.2704247291205</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="E7" t="n">
-        <v>464.2704247291205</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="F7" t="n">
-        <v>464.2704247291205</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="G7" t="n">
-        <v>298.0134550233526</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>154.217186531507</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2187.823032372085</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2017.687984891219</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>1774.348637117119</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U7" t="n">
-        <v>1494.164188617424</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V7" t="n">
-        <v>1494.164188617424</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W7" t="n">
-        <v>1219.311784789937</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X7" t="n">
-        <v>976.7478882357417</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y7" t="n">
-        <v>826.4089565622701</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1089.133930720603</v>
+        <v>1392.046023333888</v>
       </c>
       <c r="C8" t="n">
-        <v>662.233200733903</v>
+        <v>965.145293347188</v>
       </c>
       <c r="D8" t="n">
-        <v>238.9405799189033</v>
+        <v>541.8526725321883</v>
       </c>
       <c r="E8" t="n">
-        <v>110.7279256686548</v>
+        <v>115.8757326800459</v>
       </c>
       <c r="F8" t="n">
-        <v>89.64414789845907</v>
+        <v>44.79688341939483</v>
       </c>
       <c r="G8" t="n">
-        <v>89.34548952831176</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H8" t="n">
-        <v>89.34548952831176</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J8" t="n">
-        <v>244.9404807450223</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K8" t="n">
-        <v>918.7421318583365</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L8" t="n">
-        <v>918.7421318583365</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M8" t="n">
-        <v>918.7421318583365</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="N8" t="n">
-        <v>918.7421318583365</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O8" t="n">
-        <v>1592.543782971651</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P8" t="n">
-        <v>2266.345434084965</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q8" t="n">
-        <v>2722.430913589148</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S8" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T8" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U8" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V8" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W8" t="n">
-        <v>2326.039563889495</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X8" t="n">
-        <v>1914.319565057242</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y8" t="n">
-        <v>1508.982295012133</v>
+        <v>1811.894387625418</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L9" t="n">
-        <v>54.44861827178296</v>
+        <v>201.1892506764432</v>
       </c>
       <c r="M9" t="n">
-        <v>54.44861827178296</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="N9" t="n">
-        <v>515.5329466256644</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="O9" t="n">
-        <v>1189.334597738979</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P9" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1037.861172536296</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C10" t="n">
-        <v>865.8886094152118</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D10" t="n">
-        <v>702.5718365419825</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E10" t="n">
-        <v>536.363630694836</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F10" t="n">
-        <v>364.5018564693964</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G10" t="n">
-        <v>198.2448867636286</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H10" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2234.861645684911</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2220.45760238661</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1977.11825461251</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1696.933806112814</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1696.933806112814</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="W10" t="n">
-        <v>1696.933806112814</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="X10" t="n">
-        <v>1454.369909558619</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y10" t="n">
-        <v>1228.027141248361</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1897.245279252508</v>
+        <v>2429.413071721396</v>
       </c>
       <c r="C11" t="n">
-        <v>1470.344549265809</v>
+        <v>2002.512341734696</v>
       </c>
       <c r="D11" t="n">
-        <v>1047.051928450809</v>
+        <v>1579.219720919696</v>
       </c>
       <c r="E11" t="n">
-        <v>621.0749885986664</v>
+        <v>1153.242781067554</v>
       </c>
       <c r="F11" t="n">
-        <v>195.9508067880666</v>
+        <v>728.1185992569538</v>
       </c>
       <c r="G11" t="n">
-        <v>195.9508067880666</v>
+        <v>323.7795368464024</v>
       </c>
       <c r="H11" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>417.0520770886785</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>1090.853728201993</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1090.853728201993</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>1090.853728201993</v>
+        <v>2474.172256154066</v>
       </c>
       <c r="N11" t="n">
-        <v>1764.655379315307</v>
+        <v>3450.423314640766</v>
       </c>
       <c r="O11" t="n">
-        <v>2438.457030428621</v>
+        <v>4295.567964791579</v>
       </c>
       <c r="P11" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949506</v>
       </c>
       <c r="Q11" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949506</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949506</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.430913589148</v>
+        <v>4899.479949822647</v>
       </c>
       <c r="T11" t="n">
-        <v>2722.430913589148</v>
+        <v>4678.554378867279</v>
       </c>
       <c r="U11" t="n">
-        <v>2722.430913589148</v>
+        <v>4420.199469463691</v>
       </c>
       <c r="V11" t="n">
-        <v>2722.430913589148</v>
+        <v>4062.710054589941</v>
       </c>
       <c r="W11" t="n">
-        <v>2722.430913589148</v>
+        <v>3666.318704890288</v>
       </c>
       <c r="X11" t="n">
-        <v>2722.430913589148</v>
+        <v>3254.598706058036</v>
       </c>
       <c r="Y11" t="n">
-        <v>2317.093643544039</v>
+        <v>2849.261436012926</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>54.44861827178296</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K12" t="n">
-        <v>54.44861827178296</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="L12" t="n">
-        <v>515.5329466256644</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="M12" t="n">
-        <v>1189.334597738979</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="N12" t="n">
-        <v>1189.334597738979</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>278.5276838214469</v>
+        <v>324.1560104286543</v>
       </c>
       <c r="C13" t="n">
-        <v>106.5551207003629</v>
+        <v>152.1834473075703</v>
       </c>
       <c r="D13" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="E13" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="F13" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G13" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H13" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031482</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R13" t="n">
-        <v>2187.823032372085</v>
+        <v>2233.451358979292</v>
       </c>
       <c r="S13" t="n">
-        <v>2017.687984891219</v>
+        <v>2063.316311498427</v>
       </c>
       <c r="T13" t="n">
-        <v>1774.348637117119</v>
+        <v>1819.976963724327</v>
       </c>
       <c r="U13" t="n">
-        <v>1494.164188617424</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V13" t="n">
-        <v>1212.452721225452</v>
+        <v>1258.08104783266</v>
       </c>
       <c r="W13" t="n">
-        <v>937.6003173979655</v>
+        <v>983.2286440051728</v>
       </c>
       <c r="X13" t="n">
-        <v>695.0364208437705</v>
+        <v>740.6647474509779</v>
       </c>
       <c r="Y13" t="n">
-        <v>468.6936525335126</v>
+        <v>514.3219791407199</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>883.9118624929341</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C14" t="n">
-        <v>883.9118624929341</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>883.9118624929341</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>883.9118624929341</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>458.7876806823343</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>54.44861827178296</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>54.44861827178296</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>417.0520770886785</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>1090.853728201993</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>1592.543782971651</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>1592.543782971651</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N14" t="n">
-        <v>2266.345434084965</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O14" t="n">
-        <v>2266.345434084965</v>
+        <v>4886.290909067604</v>
       </c>
       <c r="P14" t="n">
-        <v>2266.345434084965</v>
+        <v>4886.290909067604</v>
       </c>
       <c r="Q14" t="n">
-        <v>2722.430913589148</v>
+        <v>4886.290909067604</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949506</v>
       </c>
       <c r="S14" t="n">
-        <v>2618.063619462288</v>
+        <v>4899.479949822647</v>
       </c>
       <c r="T14" t="n">
-        <v>2397.138048506922</v>
+        <v>4678.554378867279</v>
       </c>
       <c r="U14" t="n">
-        <v>2138.783139103334</v>
+        <v>4420.199469463691</v>
       </c>
       <c r="V14" t="n">
-        <v>1781.293724229584</v>
+        <v>4062.710054589941</v>
       </c>
       <c r="W14" t="n">
-        <v>1384.902374529931</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X14" t="n">
-        <v>1303.760226784464</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y14" t="n">
-        <v>1303.760226784464</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>54.44861827178296</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K15" t="n">
-        <v>54.44861827178296</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="L15" t="n">
-        <v>728.2502693850971</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="M15" t="n">
-        <v>728.2502693850971</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="N15" t="n">
-        <v>728.2502693850971</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O15" t="n">
-        <v>1316.97146190481</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P15" t="n">
-        <v>1316.97146190481</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q15" t="n">
-        <v>1781.11693876759</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>278.5276838214469</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C16" t="n">
-        <v>106.5551207003629</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D16" t="n">
-        <v>54.44861827178296</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E16" t="n">
-        <v>54.44861827178296</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F16" t="n">
-        <v>54.44861827178296</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G16" t="n">
-        <v>54.44861827178296</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H16" t="n">
-        <v>54.44861827178296</v>
+        <v>199.8455131387142</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031482</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R16" t="n">
-        <v>2187.823032372085</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="S16" t="n">
-        <v>2017.687984891219</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="T16" t="n">
-        <v>1774.348637117119</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="U16" t="n">
-        <v>1494.164188617424</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="V16" t="n">
-        <v>1212.452721225452</v>
+        <v>2117.183104807232</v>
       </c>
       <c r="W16" t="n">
-        <v>937.6003173979655</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X16" t="n">
-        <v>695.0364208437705</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y16" t="n">
-        <v>468.6936525335126</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="17">
@@ -5513,31 +5515,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>292.0244587153427</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>1007.532766690842</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690842</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
         <v>5010.768376164567</v>
@@ -5601,16 +5603,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>102.3027134058285</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N18" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>2282.715740818957</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>2119.408873334071</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1844.556469506584</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5759,43 +5761,43 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2467.904347614084</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>3444.155406100785</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O20" t="n">
-        <v>4289.300056251597</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5838,10 +5840,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N21" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>3205.840321740789</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>3100.930848725444</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>3100.930848725444</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I22" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>4945.000622810561</v>
       </c>
       <c r="T22" t="n">
-        <v>2282.715740818957</v>
+        <v>4701.661275036461</v>
       </c>
       <c r="U22" t="n">
-        <v>2282.715740818957</v>
+        <v>4421.476826536766</v>
       </c>
       <c r="V22" t="n">
-        <v>2001.004273426986</v>
+        <v>4139.765359144794</v>
       </c>
       <c r="W22" t="n">
-        <v>1726.151869599499</v>
+        <v>3864.912955317307</v>
       </c>
       <c r="X22" t="n">
-        <v>1601.992572952389</v>
+        <v>3622.349058763113</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642131</v>
+        <v>3396.006290452855</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,13 +5977,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
@@ -6005,19 +6007,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6066,25 +6068,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K24" t="n">
-        <v>648.6278400003578</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L24" t="n">
-        <v>648.6278400003578</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M24" t="n">
-        <v>648.6278400003578</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N24" t="n">
-        <v>648.6278400003578</v>
+        <v>1463.315149158289</v>
       </c>
       <c r="O24" t="n">
-        <v>648.6278400003578</v>
+        <v>1463.315149158289</v>
       </c>
       <c r="P24" t="n">
-        <v>1364.825557038856</v>
+        <v>1463.315149158289</v>
       </c>
       <c r="Q24" t="n">
         <v>1828.971033901635</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>985.454412532011</v>
+        <v>3267.187818431212</v>
       </c>
       <c r="C25" t="n">
-        <v>985.454412532011</v>
+        <v>3267.187818431212</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>3267.187818431212</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>3100.979612584066</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>3100.979612584066</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L25" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M25" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N25" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O25" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P25" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q25" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>4945.000622810561</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>4701.661275036461</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>4421.476826536766</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>4139.765359144794</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>3864.912955317307</v>
       </c>
       <c r="X25" t="n">
-        <v>985.454412532011</v>
+        <v>3622.349058763113</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.454412532011</v>
+        <v>3396.006290452855</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,13 +6214,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6233,28 +6235,28 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6300,22 +6302,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>109.7493563677404</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N27" t="n">
-        <v>1199.06430284061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>326.3817789554925</v>
+        <v>3918.135197142811</v>
       </c>
       <c r="C28" t="n">
-        <v>154.4092158344085</v>
+        <v>3746.162634021727</v>
       </c>
       <c r="D28" t="n">
-        <v>102.3027134058285</v>
+        <v>3582.845861148498</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>3416.637655301351</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>3244.775881075911</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L28" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M28" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N28" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O28" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P28" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>4824.757709204499</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>4824.757709204499</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>4543.046241812528</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>4268.193837985041</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>4108.301165854877</v>
       </c>
       <c r="Y28" t="n">
-        <v>516.5477476675582</v>
+        <v>4108.301165854877</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6479,19 +6481,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6537,28 +6539,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1085.715267670341</v>
+        <v>418.0715450187581</v>
       </c>
       <c r="C31" t="n">
-        <v>913.7427045492574</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="D31" t="n">
-        <v>750.4259316760281</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="E31" t="n">
-        <v>584.2177258288816</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G31" t="n">
         <v>246.0989818976742</v>
@@ -6619,10 +6621,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6646,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2157.23184608853</v>
       </c>
       <c r="T31" t="n">
-        <v>2282.715740818957</v>
+        <v>1913.89249831443</v>
       </c>
       <c r="U31" t="n">
-        <v>2282.715740818957</v>
+        <v>1633.708049814735</v>
       </c>
       <c r="V31" t="n">
-        <v>2019.640305074347</v>
+        <v>1351.996582422764</v>
       </c>
       <c r="W31" t="n">
-        <v>1744.78790124686</v>
+        <v>1077.144178595277</v>
       </c>
       <c r="X31" t="n">
-        <v>1502.224004692665</v>
+        <v>834.5802820410818</v>
       </c>
       <c r="Y31" t="n">
-        <v>1275.881236382407</v>
+        <v>608.2375137308238</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,13 +6688,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
@@ -6716,19 +6718,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>368.3282513713204</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C34" t="n">
-        <v>368.3282513713204</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="D34" t="n">
-        <v>368.3282513713204</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="E34" t="n">
-        <v>368.3282513713204</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="F34" t="n">
-        <v>368.3282513713204</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G34" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
         <v>202.0712816655526</v>
@@ -6856,10 +6858,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2277.623599921958</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2107.488552441093</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>1864.149204666993</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1583.964756167297</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1302.253288775326</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1027.400884947839</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>784.8369883936441</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y34" t="n">
-        <v>558.4942200833862</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6925,7 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G35" t="n">
         <v>435.0679631883225</v>
@@ -6935,37 +6937,37 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7017,19 +7019,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P36" t="n">
         <v>1910.990343986338</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>3270.011978872611</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>3098.039415751527</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L37" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M37" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N37" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O37" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>4945.000622810561</v>
       </c>
       <c r="T37" t="n">
-        <v>2112.580693338092</v>
+        <v>4701.661275036461</v>
       </c>
       <c r="U37" t="n">
-        <v>1832.396244838396</v>
+        <v>4421.476826536766</v>
       </c>
       <c r="V37" t="n">
-        <v>1550.684777446425</v>
+        <v>4139.765359144794</v>
       </c>
       <c r="W37" t="n">
-        <v>1550.684777446425</v>
+        <v>3864.912955317307</v>
       </c>
       <c r="X37" t="n">
-        <v>1550.684777446425</v>
+        <v>3622.349058763113</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>3396.006290452855</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7162,7 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G38" t="n">
         <v>435.0679631883225</v>
@@ -7178,31 +7180,31 @@
         <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>1581.174581076927</v>
       </c>
       <c r="M38" t="n">
         <v>2585.460682495986</v>
       </c>
       <c r="N38" t="n">
-        <v>3561.711740982687</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.8563911335</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7260,10 +7262,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O39" t="n">
         <v>1910.990343986338</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4017.903765402536</v>
+        <v>3158.801708427963</v>
       </c>
       <c r="C40" t="n">
-        <v>3845.931202281452</v>
+        <v>3106.584417103737</v>
       </c>
       <c r="D40" t="n">
-        <v>3682.614429408222</v>
+        <v>3106.584417103737</v>
       </c>
       <c r="E40" t="n">
-        <v>3516.406223561076</v>
+        <v>3106.584417103737</v>
       </c>
       <c r="F40" t="n">
-        <v>3344.544449335636</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="G40" t="n">
-        <v>3178.287479629868</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H40" t="n">
-        <v>3034.491211138023</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102457</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308294</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602715</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572966</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449001</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128765</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P40" t="n">
         <v>4988.135540050665</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R40" t="n">
-        <v>5115.135670291427</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S40" t="n">
-        <v>5115.135670291427</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T40" t="n">
-        <v>5115.135670291427</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U40" t="n">
-        <v>4834.951221791732</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="V40" t="n">
-        <v>4834.951221791732</v>
+        <v>4092.726745831968</v>
       </c>
       <c r="W40" t="n">
-        <v>4676.976398979054</v>
+        <v>3817.874342004481</v>
       </c>
       <c r="X40" t="n">
-        <v>4434.41250242486</v>
+        <v>3575.310445450286</v>
       </c>
       <c r="Y40" t="n">
-        <v>4208.069734114601</v>
+        <v>3348.967677140028</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>893.1379707347943</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C41" t="n">
-        <v>882.0803014973341</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D41" t="n">
-        <v>458.7876806823343</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>458.7876806823343</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>458.7876806823343</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
-        <v>54.44861827178296</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>54.44861827178296</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K41" t="n">
-        <v>728.2502693850971</v>
+        <v>815.5852528544892</v>
       </c>
       <c r="L41" t="n">
-        <v>1402.051920498411</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M41" t="n">
-        <v>2075.853571611725</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N41" t="n">
-        <v>2604.874578707245</v>
+        <v>3725.747460379525</v>
       </c>
       <c r="O41" t="n">
-        <v>2604.874578707245</v>
+        <v>4570.892110530337</v>
       </c>
       <c r="P41" t="n">
-        <v>2604.874578707245</v>
+        <v>5003.847243949506</v>
       </c>
       <c r="Q41" t="n">
-        <v>2604.874578707245</v>
+        <v>5003.847243949506</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949506</v>
       </c>
       <c r="S41" t="n">
-        <v>2722.430913589148</v>
+        <v>4899.479949822647</v>
       </c>
       <c r="T41" t="n">
-        <v>2722.430913589148</v>
+        <v>4678.554378867279</v>
       </c>
       <c r="U41" t="n">
-        <v>2464.07600418556</v>
+        <v>4420.199469463691</v>
       </c>
       <c r="V41" t="n">
-        <v>2106.58658931181</v>
+        <v>4062.710054589941</v>
       </c>
       <c r="W41" t="n">
-        <v>1710.195239612157</v>
+        <v>3666.318704890288</v>
       </c>
       <c r="X41" t="n">
-        <v>1298.475240779904</v>
+        <v>3254.598706058036</v>
       </c>
       <c r="Y41" t="n">
-        <v>893.1379707347943</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E42" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F42" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>728.2502693850971</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M42" t="n">
-        <v>1189.334597738979</v>
+        <v>1156.063482855035</v>
       </c>
       <c r="N42" t="n">
-        <v>1189.334597738979</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O42" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P42" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q42" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>661.3682967512599</v>
+        <v>581.9919573020431</v>
       </c>
       <c r="C43" t="n">
-        <v>489.3957336301759</v>
+        <v>581.9919573020431</v>
       </c>
       <c r="D43" t="n">
-        <v>326.0789607569466</v>
+        <v>581.9919573020431</v>
       </c>
       <c r="E43" t="n">
-        <v>326.0789607569466</v>
+        <v>581.9919573020431</v>
       </c>
       <c r="F43" t="n">
-        <v>154.217186531507</v>
+        <v>410.1301830766036</v>
       </c>
       <c r="G43" t="n">
-        <v>154.217186531507</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="H43" t="n">
-        <v>154.217186531507</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031482</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>693.1568689961989</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q43" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R43" t="n">
-        <v>2234.861645684911</v>
+        <v>2233.451358979292</v>
       </c>
       <c r="S43" t="n">
-        <v>2234.861645684911</v>
+        <v>2063.316311498427</v>
       </c>
       <c r="T43" t="n">
-        <v>1991.522297910811</v>
+        <v>1819.976963724327</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.337849411115</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V43" t="n">
-        <v>1595.293334155265</v>
+        <v>1289.574226395791</v>
       </c>
       <c r="W43" t="n">
-        <v>1320.440930327778</v>
+        <v>1014.721822568304</v>
       </c>
       <c r="X43" t="n">
-        <v>1077.877033773583</v>
+        <v>772.1579260141089</v>
       </c>
       <c r="Y43" t="n">
-        <v>851.5342654633255</v>
+        <v>772.1579260141089</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>904.6419690734826</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>477.7412390867827</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>54.44861827178296</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>54.44861827178296</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>54.44861827178296</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>54.44861827178296</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>54.44861827178296</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>54.44861827178296</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>54.44861827178296</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>54.44861827178296</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>728.2502693850971</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N44" t="n">
-        <v>1402.051920498411</v>
+        <v>2876.781500254681</v>
       </c>
       <c r="O44" t="n">
-        <v>2075.853571611725</v>
+        <v>3721.926150405493</v>
       </c>
       <c r="P44" t="n">
-        <v>2148.789099203062</v>
+        <v>4430.205429563421</v>
       </c>
       <c r="Q44" t="n">
-        <v>2604.874578707245</v>
+        <v>4886.290909067604</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949506</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.430913589148</v>
+        <v>4899.479949822647</v>
       </c>
       <c r="T44" t="n">
-        <v>2501.505342633781</v>
+        <v>4678.554378867279</v>
       </c>
       <c r="U44" t="n">
-        <v>2243.150433230194</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V44" t="n">
-        <v>2141.547602242375</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W44" t="n">
-        <v>2141.547602242375</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X44" t="n">
-        <v>1729.827603410122</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y44" t="n">
-        <v>1324.490333365013</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E45" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F45" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>326.146107551374</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K45" t="n">
-        <v>326.146107551374</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L45" t="n">
-        <v>326.146107551374</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M45" t="n">
-        <v>725.1891208761992</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="N45" t="n">
-        <v>725.1891208761992</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O45" t="n">
-        <v>1398.990771989513</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P45" t="n">
-        <v>1398.990771989513</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q45" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>392.6293872400134</v>
+        <v>3155.899392089292</v>
       </c>
       <c r="C46" t="n">
-        <v>220.6568241189294</v>
+        <v>3155.899392089292</v>
       </c>
       <c r="D46" t="n">
-        <v>220.6568241189294</v>
+        <v>3155.899392089292</v>
       </c>
       <c r="E46" t="n">
-        <v>54.44861827178296</v>
+        <v>2989.691186242146</v>
       </c>
       <c r="F46" t="n">
-        <v>54.44861827178296</v>
+        <v>2989.691186242146</v>
       </c>
       <c r="G46" t="n">
-        <v>54.44861827178296</v>
+        <v>2823.434216536378</v>
       </c>
       <c r="H46" t="n">
-        <v>54.44861827178296</v>
+        <v>2823.434216536378</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44861827178296</v>
+        <v>2823.434216536378</v>
       </c>
       <c r="J46" t="n">
-        <v>111.939946495941</v>
+        <v>2880.925544760536</v>
       </c>
       <c r="K46" t="n">
-        <v>338.4675477017781</v>
+        <v>3107.453145966373</v>
       </c>
       <c r="L46" t="n">
-        <v>693.1568689961989</v>
+        <v>3462.142467260794</v>
       </c>
       <c r="M46" t="n">
-        <v>1084.34266396645</v>
+        <v>3853.328262231045</v>
       </c>
       <c r="N46" t="n">
-        <v>1461.834174842485</v>
+        <v>4230.81977310708</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.262303522249</v>
+        <v>4586.247901786844</v>
       </c>
       <c r="P46" t="n">
-        <v>2107.86151544415</v>
+        <v>4876.847113708744</v>
       </c>
       <c r="Q46" t="n">
-        <v>2234.861645684911</v>
+        <v>5003.847243949506</v>
       </c>
       <c r="R46" t="n">
-        <v>2187.823032372085</v>
+        <v>4956.808630636679</v>
       </c>
       <c r="S46" t="n">
-        <v>2017.687984891219</v>
+        <v>4786.673583155814</v>
       </c>
       <c r="T46" t="n">
-        <v>1774.348637117119</v>
+        <v>4543.334235381714</v>
       </c>
       <c r="U46" t="n">
-        <v>1494.164188617424</v>
+        <v>4263.149786882019</v>
       </c>
       <c r="V46" t="n">
-        <v>1212.452721225452</v>
+        <v>3981.438319490048</v>
       </c>
       <c r="W46" t="n">
-        <v>937.6003173979655</v>
+        <v>3706.585915662561</v>
       </c>
       <c r="X46" t="n">
-        <v>809.138124262337</v>
+        <v>3464.022019108366</v>
       </c>
       <c r="Y46" t="n">
-        <v>582.795355952079</v>
+        <v>3346.065360801358</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7981,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>203.8631344095814</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>718.9197708299099</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M2" t="n">
-        <v>718.0389912967188</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N2" t="n">
-        <v>717.8873512317331</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>86.13502881159596</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
@@ -8055,31 +8057,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>379.6111138811509</v>
       </c>
       <c r="L3" t="n">
-        <v>488.256832526231</v>
+        <v>578.7428998298236</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,25 +8218,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L5" t="n">
-        <v>718.9197708299099</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>717.8873512317331</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O5" t="n">
-        <v>229.806982056266</v>
+        <v>571.1449214366446</v>
       </c>
       <c r="P5" t="n">
-        <v>718.1830902075183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8295,10 +8297,10 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489274</v>
       </c>
       <c r="L6" t="n">
-        <v>703.1228151115166</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8307,16 +8309,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>130.2228906892603</v>
+        <v>549.2245073196785</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>221.8359821858284</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>716.3723291920963</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>717.9986877533111</v>
+        <v>452.4011488286621</v>
       </c>
       <c r="P8" t="n">
-        <v>718.1830902075183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8535,19 +8537,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>180.7888499740232</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N9" t="n">
-        <v>487.0847740255431</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>703.7796181195092</v>
+        <v>579.3997028378162</v>
       </c>
       <c r="P9" t="n">
-        <v>702.3785696021157</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8690,22 +8692,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>407.490350640244</v>
       </c>
       <c r="N11" t="n">
-        <v>717.8873512317331</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>324.4176680329862</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
         <v>36.12467460459804</v>
@@ -8766,22 +8768,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>488.256832526231</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>703.704508909615</v>
+        <v>677.1461373703552</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>703.7796181195092</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8927,28 +8929,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>545.0696735130855</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>717.8873512317331</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>843.390949124896</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>703.1228151115166</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>677.1461373703552</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>617.8397609542557</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>221.0580860608534</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9179,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,19 +9251,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>656.0343783945846</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9407,7 +9409,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>765.1769988726438</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9416,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q20" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,13 +9488,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N21" t="n">
         <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>466.3243076206841</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9716,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>574.2427960500296</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
@@ -9726,16 +9728,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>392.0964168176105</v>
       </c>
       <c r="R24" t="n">
         <v>106.5207073584907</v>
@@ -9881,7 +9883,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>304.4845953330648</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
         <v>20.61111433333334</v>
@@ -9960,13 +9962,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O27" t="n">
-        <v>742.2891030007354</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>466.324307620685</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>22.39923383333334</v>
@@ -10197,19 +10199,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>375.8243607524589</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>466.324307620685</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10595,19 +10597,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>891.0724241548241</v>
+        <v>763.5414113871911</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,22 +10667,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>529.5908311320803</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10826,10 +10828,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>809.386345155451</v>
       </c>
       <c r="M38" t="n">
-        <v>883.9207714806259</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10908,13 +10910,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -11060,28 +11062,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>718.0389912967188</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>571.6442764662844</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>474.9037794053517</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,16 +11144,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>703.1228151115166</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>488.8385263243295</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O42" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11294,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>718.0389912967188</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>717.8873512317331</v>
+        <v>814.0147147172939</v>
       </c>
       <c r="O44" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>111.2476119024906</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11373,7 +11375,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11382,19 +11384,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>426.1705313454848</v>
+        <v>749.7358553685298</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O45" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23270,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>154.8025281095847</v>
+        <v>73.4241286929674</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.0981677402028</v>
+        <v>110.0981677402027</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -23495,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23555,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>107.9720312369312</v>
       </c>
       <c r="X14" t="n">
-        <v>327.2720725759184</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.2205539080138</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>113.008962604416</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>66.3924592046819</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>117.2205539080144</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>60.73402172351916</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>27.77629167420079</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24649,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>81.84451217979046</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24841,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24886,16 +24888,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>44.20464122293424</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>18.44967133088738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -25084,13 +25086,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>165.764160956837</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.52700769166967</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>63.52994056050399</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>50.79471755090449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>118.5577190788902</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>115.7088052046616</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>411.6846301417472</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>107.9720312369311</v>
       </c>
     </row>
     <row r="42">
@@ -25786,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>164.0102826147597</v>
+        <v>31.17824677749951</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25871,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>107.9720312369312</v>
       </c>
       <c r="V44" t="n">
-        <v>253.3277180470724</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -26035,7 +26037,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>112.9606863843808</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>107.3022489032168</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>698617.2483567268</v>
+        <v>695677.0579230012</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>698617.2483567268</v>
+        <v>695677.0579230012</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>698617.2483567268</v>
+        <v>695677.0579230012</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>462641.9904875974</v>
+        <v>678741.8631866727</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>462641.9904875974</v>
+        <v>678741.8631866728</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>689283.3038020165</v>
+        <v>689283.3038020167</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>689283.3038020165</v>
+        <v>689283.3038020167</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>689283.3038020165</v>
+        <v>689283.3038020164</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>689283.3038020165</v>
+        <v>689283.3038020167</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>689283.3038020167</v>
+        <v>689283.3038020165</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>462641.9904875974</v>
+        <v>678741.8631866726</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>462641.9904875973</v>
+        <v>678741.8631866728</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>349465.6008066979</v>
+      </c>
+      <c r="C2" t="n">
         <v>349465.600806698</v>
       </c>
-      <c r="C2" t="n">
-        <v>349465.6008066979</v>
-      </c>
       <c r="D2" t="n">
-        <v>349465.6008066979</v>
+        <v>349465.6008066977</v>
       </c>
       <c r="E2" t="n">
-        <v>226348.0749619346</v>
+        <v>332061.4976705927</v>
       </c>
       <c r="F2" t="n">
-        <v>226348.0749619346</v>
+        <v>332061.4976705926</v>
       </c>
       <c r="G2" t="n">
+        <v>337218.2418824683</v>
+      </c>
+      <c r="H2" t="n">
+        <v>337218.2418824685</v>
+      </c>
+      <c r="I2" t="n">
         <v>337218.2418824686</v>
       </c>
-      <c r="H2" t="n">
-        <v>337218.2418824683</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>337218.2418824685</v>
-      </c>
-      <c r="J2" t="n">
-        <v>337218.2418824684</v>
       </c>
       <c r="K2" t="n">
         <v>337218.2418824685</v>
@@ -26344,16 +26346,16 @@
         <v>337218.2418824685</v>
       </c>
       <c r="M2" t="n">
-        <v>337218.2418824686</v>
+        <v>337218.2418824683</v>
       </c>
       <c r="N2" t="n">
-        <v>337218.2418824685</v>
+        <v>337218.2418824684</v>
       </c>
       <c r="O2" t="n">
-        <v>226348.0749619346</v>
+        <v>332061.4976705926</v>
       </c>
       <c r="P2" t="n">
-        <v>226348.0749619347</v>
+        <v>332061.4976705924</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>186404.7334147372</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>207432.2876165611</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>7625.622083481291</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>173130.4912056397</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146444.4874988407</v>
+        <v>165375.7390424566</v>
       </c>
       <c r="C4" t="n">
-        <v>146444.4874988407</v>
+        <v>165375.7390424566</v>
       </c>
       <c r="D4" t="n">
-        <v>146444.4874988406</v>
+        <v>165375.7390424566</v>
       </c>
       <c r="E4" t="n">
-        <v>29325.43720283133</v>
+        <v>43077.56596046206</v>
       </c>
       <c r="F4" t="n">
-        <v>29325.43720283132</v>
+        <v>43077.56596046207</v>
       </c>
       <c r="G4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="H4" t="n">
         <v>43748.40045389556</v>
@@ -26439,7 +26441,7 @@
         <v>43748.40045389556</v>
       </c>
       <c r="J4" t="n">
-        <v>43748.40045389557</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="K4" t="n">
         <v>43748.40045389556</v>
@@ -26454,10 +26456,10 @@
         <v>43748.40045389556</v>
       </c>
       <c r="O4" t="n">
-        <v>29325.43720283132</v>
+        <v>43077.56596046207</v>
       </c>
       <c r="P4" t="n">
-        <v>29325.43720283133</v>
+        <v>43077.56596046207</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803249</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803249</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803249</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803249</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-100074.7403423817</v>
+        <v>-69761.12268792411</v>
       </c>
       <c r="C6" t="n">
-        <v>128012.5634213021</v>
+        <v>116643.6107268132</v>
       </c>
       <c r="D6" t="n">
-        <v>128012.5634213022</v>
+        <v>116643.610726813</v>
       </c>
       <c r="E6" t="n">
-        <v>155641.6878725482</v>
+        <v>5493.165985537053</v>
       </c>
       <c r="F6" t="n">
-        <v>155641.6878725483</v>
+        <v>212925.453602098</v>
       </c>
       <c r="G6" t="n">
-        <v>51768.65842995727</v>
+        <v>208094.1571566618</v>
       </c>
       <c r="H6" t="n">
-        <v>215719.7792401431</v>
+        <v>215719.7792401433</v>
       </c>
       <c r="I6" t="n">
         <v>215719.7792401433</v>
       </c>
       <c r="J6" t="n">
-        <v>37642.85075136337</v>
+        <v>70186.1093053268</v>
       </c>
       <c r="K6" t="n">
-        <v>215719.7792401432</v>
+        <v>215719.7792401433</v>
       </c>
       <c r="L6" t="n">
         <v>215719.7792401432</v>
       </c>
       <c r="M6" t="n">
-        <v>215719.7792401434</v>
+        <v>42589.28803450335</v>
       </c>
       <c r="N6" t="n">
-        <v>215719.7792401433</v>
+        <v>215719.7792401432</v>
       </c>
       <c r="O6" t="n">
-        <v>155641.6878725482</v>
+        <v>212925.453602098</v>
       </c>
       <c r="P6" t="n">
-        <v>155641.6878725483</v>
+        <v>212925.4536020979</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987377</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987377</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987377</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987377</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>694.7339978717825</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>27.82210658548001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.7339978717825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.7339978717825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>27.82210658548001</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>189.6763374865806</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>201.982412940523</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -27439,13 +27441,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>106.4821048305511</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>200.1815326662332</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>38.05003694286762</v>
+        <v>201.9824129405227</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>37.45454936137529</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -27786,13 +27788,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>75.24379827041847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>294.786642745875</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>350.5048792244492</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27873,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,10 +27915,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>154.173694140738</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>200.7419213204369</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34699,19 +34701,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>168.0985336147721</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M2" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N2" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>357.2118800478176</v>
       </c>
       <c r="L3" t="n">
-        <v>465.7417458120015</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L5" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O5" t="n">
-        <v>192.4160227002419</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="P5" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,10 +35017,10 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L6" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>108.4520494844316</v>
+        <v>527.4536661148499</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>192.4160227002418</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>680.607728397287</v>
+        <v>415.010189472638</v>
       </c>
       <c r="P8" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35255,19 +35257,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>158.2737632597936</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N9" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P9" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,22 +35412,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>370.0590877408122</v>
       </c>
       <c r="N11" t="n">
-        <v>680.607728397287</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>286.8423062227549</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35486,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>680.607728397287</v>
+        <v>654.0493568580272</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>680.607728397287</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35647,28 +35649,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>506.7576310804626</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>680.607728397287</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>805.9999897688718</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>654.0493568580272</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>594.6678712320335</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>191.6381265752669</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35899,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,19 +35971,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>634.6913501810429</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36129,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>727.745735973212</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36136,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N21" t="n">
         <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>428.7489458104528</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36446,16 +36448,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>369.349378528632</v>
       </c>
       <c r="R24" t="n">
         <v>82.84778796434657</v>
@@ -36601,7 +36603,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>267.053332433633</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O27" t="n">
-        <v>719.1172132785132</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>428.7489458104537</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,19 +36919,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>352.7275802401309</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>428.7489458104537</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37315,19 +37317,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>853.6814647988001</v>
+        <v>726.150452031167</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37546,10 +37548,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>771.0743027228281</v>
       </c>
       <c r="M38" t="n">
-        <v>846.4895085811942</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37628,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>680.607728397287</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>534.3646536318383</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>437.3284175951204</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7417458120015</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O42" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38014,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>680.607728397287</v>
+        <v>776.7350918828479</v>
       </c>
       <c r="O44" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>73.67225009225932</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,19 +38104,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>403.0737508331568</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O45" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1076310.363593526</v>
+        <v>1075592.373478667</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760725</v>
+        <v>698313.683076074</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>217.0772816663267</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>49.49512077555119</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -822,13 +822,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>55.20150031394591</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>161.673798810038</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -904,19 +904,19 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>222.4080757634534</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>199.3014844041359</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>132.7982881284979</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>260.4446813871638</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1144,7 +1144,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>70.36806076804453</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>0.2956717864458369</v>
@@ -1201,7 +1201,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>50.77901812021</v>
       </c>
     </row>
     <row r="9">
@@ -1311,7 +1311,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>39.39633626821598</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1387,10 +1387,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>221.4655660477381</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>110.7442840088803</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>116.2748171257522</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>51.58543740429434</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1627,7 +1627,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>29.89949249262175</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -1669,7 +1669,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>284.4554049657253</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100375</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>168.1487656894603</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1903,10 +1903,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>353.9145207250128</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -2004,7 +2004,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>57.24387488545717</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>49.87597792716577</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2241,19 +2241,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>103.8603782851912</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>101.9929615813389</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>127.5302873014258</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2718,19 +2718,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2778,10 +2778,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>158.2937454088625</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>124.2290557831222</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>4.378995526348206</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>124.734368464441</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3432,7 +3432,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>6.132873868425321</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3663,7 +3663,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>51.69511841098299</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>3.222079004212146</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3748,7 +3748,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>348.2930417606518</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3760,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>293.3118661077274</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3900,22 +3900,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3957,16 +3957,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>247.7161059405519</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>172.0363389068417</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -4033,7 +4033,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>147.7993290726206</v>
+        <v>147.7993290726188</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4137,16 +4137,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>55.42473440164018</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -4185,7 +4185,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4203,7 +4203,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>116.7770917239385</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1874.833966332469</v>
+        <v>1342.050951843433</v>
       </c>
       <c r="C2" t="n">
-        <v>1851.973640386173</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D2" t="n">
-        <v>1632.703658905035</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E2" t="n">
-        <v>1206.726719052893</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F2" t="n">
-        <v>781.6025372422929</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G2" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L2" t="n">
-        <v>957.7672188505811</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M2" t="n">
-        <v>1508.432753835019</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N2" t="n">
-        <v>2059.098288819457</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O2" t="n">
-        <v>2107.354917580473</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580473</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>1899.61838738015</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="V2" t="n">
-        <v>1899.61838738015</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="W2" t="n">
-        <v>1899.61838738015</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="X2" t="n">
-        <v>1891.938792588301</v>
+        <v>2167.236586180072</v>
       </c>
       <c r="Y2" t="n">
-        <v>1890.641926583595</v>
+        <v>1761.899316134963</v>
       </c>
     </row>
     <row r="3">
@@ -4397,31 +4397,31 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>669.8354755761781</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L3" t="n">
-        <v>1220.501010560616</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M3" t="n">
-        <v>1220.501010560616</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N3" t="n">
-        <v>1220.501010560616</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O3" t="n">
         <v>1220.501010560616</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>682.051685853877</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C4" t="n">
-        <v>510.0791227327929</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
-        <v>454.3200315065849</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E4" t="n">
-        <v>454.3200315065849</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065849</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008171</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089715</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
         <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T4" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U4" t="n">
-        <v>1897.688190649854</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="V4" t="n">
-        <v>1615.976723257882</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W4" t="n">
-        <v>1341.124319430395</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X4" t="n">
-        <v>1098.560422876201</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y4" t="n">
-        <v>872.2176545659427</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1270.775797585523</v>
+        <v>1438.597012500542</v>
       </c>
       <c r="C5" t="n">
-        <v>1247.915471639227</v>
+        <v>1415.736686554246</v>
       </c>
       <c r="D5" t="n">
-        <v>1228.663254864631</v>
+        <v>1396.48446977965</v>
       </c>
       <c r="E5" t="n">
-        <v>802.6863150124886</v>
+        <v>1171.829847796364</v>
       </c>
       <c r="F5" t="n">
-        <v>377.5621332018889</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G5" t="n">
-        <v>377.2634748317415</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336855</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
+        <v>595.1637600336857</v>
+      </c>
+      <c r="M5" t="n">
+        <v>595.1637600336857</v>
+      </c>
+      <c r="N5" t="n">
         <v>1145.829295018124</v>
       </c>
-      <c r="M5" t="n">
-        <v>1145.829295018124</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>1696.494830002562</v>
       </c>
-      <c r="O5" t="n">
-        <v>2224.911252462376</v>
-      </c>
       <c r="P5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1899.61838738015</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W5" t="n">
-        <v>1899.61838738015</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="X5" t="n">
-        <v>1487.898388547897</v>
+        <v>1455.701838756373</v>
       </c>
       <c r="Y5" t="n">
-        <v>1286.583757836649</v>
+        <v>1454.404972751668</v>
       </c>
     </row>
     <row r="6">
@@ -4634,37 +4634,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>866.8612493132766</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L6" t="n">
-        <v>866.8612493132766</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M6" t="n">
-        <v>866.8612493132766</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N6" t="n">
-        <v>866.8612493132766</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O6" t="n">
-        <v>866.8612493132766</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>485.7509513926031</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C7" t="n">
-        <v>351.6112664143224</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D7" t="n">
-        <v>188.2944935410931</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E7" t="n">
-        <v>188.2944935410931</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F7" t="n">
-        <v>188.2944935410931</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G7" t="n">
         <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
         <v>101.9895532734055</v>
@@ -4755,22 +4755,22 @@
         <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>1981.571904688275</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U7" t="n">
-        <v>1701.38745618858</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V7" t="n">
-        <v>1419.675988796609</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W7" t="n">
-        <v>1144.823584969122</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X7" t="n">
-        <v>902.2596884149267</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y7" t="n">
-        <v>675.9169201046687</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1392.046023333888</v>
+        <v>1746.091355883837</v>
       </c>
       <c r="C8" t="n">
-        <v>965.145293347188</v>
+        <v>1319.190625897137</v>
       </c>
       <c r="D8" t="n">
-        <v>541.8526725321883</v>
+        <v>895.898005082137</v>
       </c>
       <c r="E8" t="n">
-        <v>115.8757326800459</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939483</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>595.1637600336855</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="M8" t="n">
+        <v>595.1637600336857</v>
+      </c>
+      <c r="N8" t="n">
         <v>1145.829295018124</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>1696.494830002562</v>
       </c>
-      <c r="N8" t="n">
-        <v>1696.494830002562</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2107.354917580473</v>
-      </c>
       <c r="P8" t="n">
-        <v>2107.354917580473</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
         <v>2217.231657670528</v>
       </c>
       <c r="Y8" t="n">
-        <v>1811.894387625418</v>
+        <v>2165.939720175366</v>
       </c>
     </row>
     <row r="9">
@@ -4871,34 +4871,34 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L9" t="n">
-        <v>201.1892506764432</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>751.8547856608812</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>751.8547856608812</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O9" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
         <v>1853.185855629757</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1027.91077931376</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>855.9382161926764</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>692.6214433194471</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>526.4132374723006</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924752</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
         <v>101.9895532734055</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V10" t="n">
-        <v>1484.213795394888</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1484.213795394888</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>1444.419516336084</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>1218.076748025826</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2429.413071721396</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C11" t="n">
-        <v>2002.512341734696</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
-        <v>1579.219720919696</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>1153.242781067554</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>728.1185992569538</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>323.7795368464024</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>100.0769448789901</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
         <v>100.0769448789901</v>
@@ -5050,43 +5050,43 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>2474.172256154066</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N11" t="n">
-        <v>3450.423314640766</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="O11" t="n">
-        <v>4295.567964791579</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P11" t="n">
-        <v>5003.847243949506</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q11" t="n">
-        <v>5003.847243949506</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R11" t="n">
-        <v>5003.847243949506</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>4899.479949822647</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>4678.554378867279</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U11" t="n">
-        <v>4420.199469463691</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V11" t="n">
-        <v>4062.710054589941</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W11" t="n">
-        <v>3666.318704890288</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X11" t="n">
-        <v>3254.598706058036</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y11" t="n">
-        <v>2849.261436012926</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="12">
@@ -5102,10 +5102,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
         <v>247.5068098990765</v>
@@ -5120,25 +5120,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>371.7744341585812</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>371.7744341585812</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L12" t="n">
-        <v>371.7744341585812</v>
+        <v>936.8757529618962</v>
       </c>
       <c r="M12" t="n">
-        <v>1019.283297448028</v>
+        <v>936.8757529618962</v>
       </c>
       <c r="N12" t="n">
-        <v>1019.283297448028</v>
+        <v>936.8757529618962</v>
       </c>
       <c r="O12" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.357030973368</v>
       </c>
       <c r="P12" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.357030973368</v>
       </c>
       <c r="Q12" t="n">
         <v>1908.7645754595</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>324.1560104286543</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C13" t="n">
-        <v>152.1834473075703</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D13" t="n">
-        <v>100.0769448789901</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E13" t="n">
-        <v>100.0769448789901</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F13" t="n">
         <v>100.0769448789901</v>
@@ -5199,13 +5199,13 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
         <v>1129.970990573657</v>
@@ -5217,34 +5217,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2233.451358979292</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2063.316311498427</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T13" t="n">
-        <v>1819.976963724327</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U13" t="n">
-        <v>1539.792515224631</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V13" t="n">
-        <v>1258.08104783266</v>
+        <v>1305.119661145486</v>
       </c>
       <c r="W13" t="n">
-        <v>983.2286440051728</v>
+        <v>1030.267257317999</v>
       </c>
       <c r="X13" t="n">
-        <v>740.6647474509779</v>
+        <v>787.7033607638042</v>
       </c>
       <c r="Y13" t="n">
-        <v>514.3219791407199</v>
+        <v>561.3605924535462</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2538.475729536478</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C14" t="n">
-        <v>2111.574999549778</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D14" t="n">
-        <v>1688.282378734778</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E14" t="n">
-        <v>1262.305438882635</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F14" t="n">
-        <v>837.1812570720355</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G14" t="n">
-        <v>432.8421946614841</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H14" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I14" t="n">
         <v>100.0769448789901</v>
@@ -5287,43 +5287,43 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>3112.09986070972</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="N14" t="n">
-        <v>4088.350919196421</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O14" t="n">
-        <v>4886.290909067604</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P14" t="n">
-        <v>4886.290909067604</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
-        <v>4886.290909067604</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
-        <v>5003.847243949506</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>4899.479949822647</v>
+        <v>4973.6457363812</v>
       </c>
       <c r="T14" t="n">
-        <v>4678.554378867279</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U14" t="n">
-        <v>4420.199469463691</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V14" t="n">
-        <v>4062.710054589941</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W14" t="n">
-        <v>3775.38136270537</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.661363873117</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y14" t="n">
-        <v>2958.324093828008</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="15">
@@ -5339,10 +5339,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
         <v>247.5068098990765</v>
@@ -5360,19 +5360,19 @@
         <v>371.7744341585812</v>
       </c>
       <c r="K15" t="n">
-        <v>371.7744341585812</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="L15" t="n">
-        <v>371.7744341585812</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="M15" t="n">
-        <v>1019.283297448028</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="N15" t="n">
-        <v>1019.283297448028</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="O15" t="n">
-        <v>1908.7645754595</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="P15" t="n">
         <v>1908.7645754595</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1183.258067403227</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C16" t="n">
-        <v>1011.285504282143</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D16" t="n">
-        <v>847.9687314089136</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E16" t="n">
-        <v>681.7605255617672</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F16" t="n">
-        <v>509.8987513363276</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G16" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H16" t="n">
-        <v>199.8455131387142</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I16" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
         <v>1129.970990573657</v>
@@ -5454,34 +5454,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2280.489972292119</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T16" t="n">
-        <v>2280.489972292119</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U16" t="n">
-        <v>2280.489972292119</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V16" t="n">
-        <v>2117.183104807232</v>
+        <v>1305.119661145486</v>
       </c>
       <c r="W16" t="n">
-        <v>1842.330700979745</v>
+        <v>1030.267257317999</v>
       </c>
       <c r="X16" t="n">
-        <v>1599.766804425551</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.424036115293</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
     <row r="17">
@@ -5515,43 +5515,43 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>292.0244587153427</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>1007.532766690842</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1007.532766690842</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.8188681099</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N17" t="n">
-        <v>2988.069926596601</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747413</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905341</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
         <v>3777.607131232208</v>
@@ -5597,16 +5597,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
         <v>102.3027134058285</v>
@@ -5673,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5700,25 +5700,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,49 +5740,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>338.650469582768</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1054.158777558267</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>1983.783825177544</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5794,7 +5794,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5834,16 +5834,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3205.840321740789</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C22" t="n">
-        <v>3100.930848725444</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D22" t="n">
-        <v>3100.930848725444</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E22" t="n">
-        <v>2934.722642878298</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F22" t="n">
-        <v>2934.722642878298</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G22" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>4945.000622810561</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>4701.661275036461</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U22" t="n">
-        <v>4421.476826536766</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V22" t="n">
-        <v>4139.765359144794</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W22" t="n">
-        <v>3864.912955317307</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X22" t="n">
-        <v>3622.349058763113</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y22" t="n">
-        <v>3396.006290452855</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,13 +5977,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
@@ -5998,28 +5998,28 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409524</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6068,28 +6068,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N24" t="n">
-        <v>1463.315149158289</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O24" t="n">
-        <v>1463.315149158289</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>1463.315149158289</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3267.187818431212</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C25" t="n">
-        <v>3267.187818431212</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D25" t="n">
-        <v>3267.187818431212</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E25" t="n">
-        <v>3100.979612584066</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F25" t="n">
-        <v>3100.979612584066</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G25" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>4945.000622810561</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>4701.661275036461</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U25" t="n">
-        <v>4421.476826536766</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V25" t="n">
-        <v>4139.765359144794</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W25" t="n">
-        <v>3864.912955317307</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X25" t="n">
-        <v>3622.349058763113</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y25" t="n">
-        <v>3396.006290452855</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291426</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6308,13 +6308,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3918.135197142811</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>3746.162634021727</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>3582.845861148498</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>3416.637655301351</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>3244.775881075911</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>5068.0970569786</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>4824.757709204499</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>4824.757709204499</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>4543.046241812528</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>4268.193837985041</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>4108.301165854877</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>4108.301165854877</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6466,34 +6466,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6539,22 +6539,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>381.4468456473314</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L30" t="n">
-        <v>381.4468456473314</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M30" t="n">
-        <v>730.647150085061</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N30" t="n">
-        <v>730.647150085061</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O30" t="n">
         <v>730.647150085061</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>418.0715450187581</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C31" t="n">
-        <v>246.0989818976742</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D31" t="n">
-        <v>246.0989818976742</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E31" t="n">
-        <v>246.0989818976742</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="F31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6621,10 +6621,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2157.23184608853</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>1913.89249831443</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1633.708049814735</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1351.996582422764</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1077.144178595277</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>834.5802820410818</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y31" t="n">
-        <v>608.2375137308238</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6782,22 +6782,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>516.5477476675582</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C34" t="n">
-        <v>516.5477476675582</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="D34" t="n">
-        <v>516.5477476675582</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>516.5477476675582</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>3114.325629236558</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747413</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905341</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7022,19 +7022,19 @@
         <v>692.7876399741681</v>
       </c>
       <c r="L36" t="n">
-        <v>1194.79262694784</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.79262694784</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N36" t="n">
-        <v>1194.79262694784</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O36" t="n">
-        <v>1194.79262694784</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3270.011978872611</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C37" t="n">
-        <v>3098.039415751527</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D37" t="n">
-        <v>2934.722642878298</v>
+        <v>208.2661037548711</v>
       </c>
       <c r="E37" t="n">
-        <v>2934.722642878298</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F37" t="n">
-        <v>2934.722642878298</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G37" t="n">
-        <v>2934.722642878298</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H37" t="n">
-        <v>2934.722642878298</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>4945.000622810561</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>4701.661275036461</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U37" t="n">
-        <v>4421.476826536766</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V37" t="n">
-        <v>4139.765359144794</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W37" t="n">
-        <v>3864.912955317307</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X37" t="n">
-        <v>3622.349058763113</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y37" t="n">
-        <v>3396.006290452855</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,13 +7162,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7180,31 +7180,31 @@
         <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>1581.174581076927</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>3561.711740982686</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.856391133499</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7256,22 +7256,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N39" t="n">
-        <v>1021.509065974867</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3158.801708427963</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C40" t="n">
-        <v>3106.584417103737</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D40" t="n">
-        <v>3106.584417103737</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E40" t="n">
-        <v>3106.584417103737</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F40" t="n">
-        <v>2934.722642878298</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="G40" t="n">
-        <v>2934.722642878298</v>
+        <v>205.3259069223325</v>
       </c>
       <c r="H40" t="n">
-        <v>2934.722642878298</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>4897.962009497734</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>4654.622661723634</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U40" t="n">
-        <v>4374.438213223939</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V40" t="n">
-        <v>4092.726745831968</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W40" t="n">
-        <v>3817.874342004481</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X40" t="n">
-        <v>3575.310445450286</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y40" t="n">
-        <v>3348.967677140028</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2538.475729536478</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C41" t="n">
-        <v>2111.574999549778</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D41" t="n">
-        <v>1688.282378734778</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E41" t="n">
-        <v>1262.305438882635</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F41" t="n">
-        <v>837.1812570720355</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G41" t="n">
-        <v>432.8421946614841</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H41" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I41" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>815.5852528544892</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>2749.496401892824</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="N41" t="n">
-        <v>3725.747460379525</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="O41" t="n">
-        <v>4570.892110530337</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P41" t="n">
-        <v>5003.847243949506</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q41" t="n">
-        <v>5003.847243949506</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R41" t="n">
-        <v>5003.847243949506</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>4899.479949822647</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>4678.554378867279</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>4420.199469463691</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>4062.710054589941</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W41" t="n">
-        <v>3666.318704890288</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X41" t="n">
-        <v>3254.598706058036</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y41" t="n">
-        <v>2958.324093828008</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="42">
@@ -7472,10 +7472,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
         <v>247.5068098990765</v>
@@ -7499,13 +7499,13 @@
         <v>100.0769448789901</v>
       </c>
       <c r="M42" t="n">
-        <v>1156.063482855035</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N42" t="n">
-        <v>1908.7645754595</v>
+        <v>303.0855804095302</v>
       </c>
       <c r="O42" t="n">
-        <v>1908.7645754595</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="P42" t="n">
         <v>1908.7645754595</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>581.9919573020431</v>
+        <v>610.1194880726601</v>
       </c>
       <c r="C43" t="n">
-        <v>581.9919573020431</v>
+        <v>438.1469249515761</v>
       </c>
       <c r="D43" t="n">
-        <v>581.9919573020431</v>
+        <v>438.1469249515761</v>
       </c>
       <c r="E43" t="n">
-        <v>581.9919573020431</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F43" t="n">
-        <v>410.1301830766036</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G43" t="n">
-        <v>243.8732133708357</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H43" t="n">
         <v>100.0769448789901</v>
@@ -7569,13 +7569,13 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
         <v>1129.970990573657</v>
@@ -7587,34 +7587,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>2233.451358979292</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>2063.316311498427</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T43" t="n">
-        <v>1819.976963724327</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U43" t="n">
-        <v>1539.792515224631</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V43" t="n">
-        <v>1289.574226395791</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W43" t="n">
-        <v>1014.721822568304</v>
+        <v>1200.402304798864</v>
       </c>
       <c r="X43" t="n">
-        <v>772.1579260141089</v>
+        <v>1026.628225094984</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.1579260141089</v>
+        <v>800.2854567847257</v>
       </c>
     </row>
     <row r="44">
@@ -7660,25 +7660,25 @@
         <v>2107.813759290661</v>
       </c>
       <c r="N44" t="n">
-        <v>2876.781500254681</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
-        <v>3721.926150405493</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>4430.205429563421</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>4886.290909067604</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>5003.847243949506</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>4899.479949822647</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>4678.554378867279</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
         <v>4529.262127278774</v>
@@ -7709,10 +7709,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
         <v>247.5068098990765</v>
@@ -7736,10 +7736,10 @@
         <v>100.0769448789901</v>
       </c>
       <c r="M45" t="n">
-        <v>819.4496289866299</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="N45" t="n">
-        <v>1908.7645754595</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O45" t="n">
         <v>1908.7645754595</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3155.899392089292</v>
+        <v>494.2910579095189</v>
       </c>
       <c r="C46" t="n">
-        <v>3155.899392089292</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="D46" t="n">
-        <v>3155.899392089292</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="E46" t="n">
-        <v>2989.691186242146</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="F46" t="n">
-        <v>2989.691186242146</v>
+        <v>266.333914584758</v>
       </c>
       <c r="G46" t="n">
-        <v>2823.434216536378</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H46" t="n">
-        <v>2823.434216536378</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
-        <v>2823.434216536378</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>2880.925544760536</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>3107.453145966373</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>3462.142467260794</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>3853.328262231045</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>4230.81977310708</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>4586.247901786844</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>4876.847113708744</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>5003.847243949506</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>4956.808630636679</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S46" t="n">
-        <v>4786.673583155814</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="T46" t="n">
-        <v>4543.334235381714</v>
+        <v>1990.112011205191</v>
       </c>
       <c r="U46" t="n">
-        <v>4263.149786882019</v>
+        <v>1709.927562705496</v>
       </c>
       <c r="V46" t="n">
-        <v>3981.438319490048</v>
+        <v>1428.216095313524</v>
       </c>
       <c r="W46" t="n">
-        <v>3706.585915662561</v>
+        <v>1153.363691486037</v>
       </c>
       <c r="X46" t="n">
-        <v>3464.022019108366</v>
+        <v>910.7997949318425</v>
       </c>
       <c r="Y46" t="n">
-        <v>3346.065360801358</v>
+        <v>684.4570266215845</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>594.5398555482169</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150258</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500401</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
-        <v>86.13502881159596</v>
+        <v>110.4525178970659</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,28 +8054,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>379.6111138811509</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298236</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>372.8619081923508</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204227</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8218,22 +8218,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104033</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>594.5398555482169</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500401</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>571.1449214366446</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>571.3293238908518</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
@@ -8294,28 +8294,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489274</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>181.370543772121</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>549.2245073196785</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8455,28 +8455,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104033</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.5398555482169</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150258</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>452.4011488286621</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>110.6369203512731</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,28 +8528,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>180.7888499740232</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>579.324593627922</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>453.880834648017</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378162</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204227</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8698,19 +8698,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>407.490350640244</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>772.009546650278</v>
       </c>
       <c r="O11" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8768,16 +8768,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>677.1461373703552</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
@@ -8789,7 +8789,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>105.9869822143645</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8935,19 +8935,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>814.1663547822778</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>843.390949124896</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9008,22 +9008,22 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>255.148922768857</v>
       </c>
       <c r="M15" t="n">
-        <v>677.1461373703552</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>221.0580860608534</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9187,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,19 +9245,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>408.4283502568324</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>268.1550667350203</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9412,19 +9412,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,19 +9482,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>354.5569311593796</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9646,7 +9646,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>423.228367941047</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9655,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.3243076206841</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
@@ -9728,19 +9728,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>392.0964168176105</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9886,16 +9886,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>882.1738474735962</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>35.03264989479647</v>
@@ -9956,16 +9956,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>406.5994887481519</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10114,7 +10114,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286663</v>
+        <v>728.3675687028222</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,25 +10187,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>375.8243607524589</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P30" t="n">
         <v>745.2028786174529</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10366,7 +10366,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286663</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10430,25 +10430,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10597,19 +10597,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>763.5414113871911</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>529.5908311320803</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
@@ -10679,13 +10679,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P36" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10828,7 +10828,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>809.386345155451</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10840,7 +10840,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
@@ -10904,7 +10904,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
@@ -10913,16 +10913,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11068,19 +11068,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>932.91012739026</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>474.9037794053517</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>35.03264989479647</v>
@@ -11147,16 +11147,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>781.6471621574452</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11308,7 +11308,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>814.0147147172939</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11384,13 +11384,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>749.7358553685298</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N45" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>73.4241286929674</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>107.9720312369329</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>71.98949189919276</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.0981677402027</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>73.42412869296925</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>107.9720312369312</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080138</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>71.98949189919264</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>113.008962604416</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -23901,10 +23901,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>118.5577190788907</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>66.3924592046819</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>62.55316220733606</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -24177,7 +24177,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>60.73402172351916</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>68.15019490184623</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24414,7 +24414,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>81.84451217979046</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24849,13 +24849,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>118.557719078891</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>44.20464122293424</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>63.42025955381634</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>165.764160956837</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>63.52994056050399</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>158.4132499202497</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -25332,7 +25332,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>118.5577190788902</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -25560,16 +25560,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>139.136226802715</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>73.42412869296919</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>107.9720312369311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>31.17824677749951</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>68.10191868181124</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>107.9720312369312</v>
+        <v>107.972031236933</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>114.718422081545</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>107.3022489032168</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>678741.8631866727</v>
+        <v>678741.8631866726</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>678741.8631866728</v>
+        <v>678741.8631866726</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>689283.3038020167</v>
+        <v>689283.3038020165</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>689283.3038020165</v>
+        <v>689283.3038020164</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>689283.3038020164</v>
+        <v>689283.3038020167</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>678741.8631866728</v>
+        <v>678741.8631866724</v>
       </c>
     </row>
   </sheetData>
@@ -26316,37 +26316,37 @@
         <v>349465.6008066979</v>
       </c>
       <c r="C2" t="n">
-        <v>349465.600806698</v>
+        <v>349465.6008066978</v>
       </c>
       <c r="D2" t="n">
-        <v>349465.6008066977</v>
+        <v>349465.6008066979</v>
       </c>
       <c r="E2" t="n">
-        <v>332061.4976705927</v>
+        <v>332061.4976705926</v>
       </c>
       <c r="F2" t="n">
-        <v>332061.4976705926</v>
+        <v>332061.4976705924</v>
       </c>
       <c r="G2" t="n">
-        <v>337218.2418824683</v>
+        <v>337218.2418824685</v>
       </c>
       <c r="H2" t="n">
         <v>337218.2418824685</v>
       </c>
       <c r="I2" t="n">
-        <v>337218.2418824686</v>
+        <v>337218.2418824685</v>
       </c>
       <c r="J2" t="n">
-        <v>337218.2418824685</v>
+        <v>337218.2418824684</v>
       </c>
       <c r="K2" t="n">
         <v>337218.2418824685</v>
       </c>
       <c r="L2" t="n">
+        <v>337218.2418824684</v>
+      </c>
+      <c r="M2" t="n">
         <v>337218.2418824685</v>
-      </c>
-      <c r="M2" t="n">
-        <v>337218.2418824683</v>
       </c>
       <c r="N2" t="n">
         <v>337218.2418824684</v>
@@ -26355,7 +26355,7 @@
         <v>332061.4976705926</v>
       </c>
       <c r="P2" t="n">
-        <v>332061.4976705924</v>
+        <v>332061.4976705926</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>207432.2876165611</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7625.622083481291</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>173130.4912056397</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>165375.7390424566</v>
       </c>
       <c r="E4" t="n">
-        <v>43077.56596046206</v>
+        <v>43077.56596046205</v>
       </c>
       <c r="F4" t="n">
-        <v>43077.56596046207</v>
+        <v>43077.56596046205</v>
       </c>
       <c r="G4" t="n">
         <v>43748.40045389557</v>
@@ -26441,13 +26441,13 @@
         <v>43748.40045389556</v>
       </c>
       <c r="J4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389558</v>
       </c>
       <c r="K4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="L4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="M4" t="n">
         <v>43748.40045389556</v>
@@ -26456,10 +26456,10 @@
         <v>43748.40045389556</v>
       </c>
       <c r="O4" t="n">
-        <v>43077.56596046207</v>
+        <v>43077.56596046205</v>
       </c>
       <c r="P4" t="n">
-        <v>43077.56596046207</v>
+        <v>43077.56596046205</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>76058.47810803249</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>76058.47810803249</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>76058.47810803249</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>76058.47810803249</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-69761.12268792411</v>
+        <v>-69761.12268792413</v>
       </c>
       <c r="C6" t="n">
-        <v>116643.6107268132</v>
+        <v>116643.6107268131</v>
       </c>
       <c r="D6" t="n">
-        <v>116643.610726813</v>
+        <v>116643.6107268131</v>
       </c>
       <c r="E6" t="n">
-        <v>5493.165985537053</v>
+        <v>5420.64888913673</v>
       </c>
       <c r="F6" t="n">
-        <v>212925.453602098</v>
+        <v>212852.9365056975</v>
       </c>
       <c r="G6" t="n">
-        <v>208094.1571566618</v>
+        <v>208043.1264944775</v>
       </c>
       <c r="H6" t="n">
-        <v>215719.7792401433</v>
+        <v>215668.7485779589</v>
       </c>
       <c r="I6" t="n">
-        <v>215719.7792401433</v>
+        <v>215668.7485779589</v>
       </c>
       <c r="J6" t="n">
-        <v>70186.1093053268</v>
+        <v>70135.07864314232</v>
       </c>
       <c r="K6" t="n">
-        <v>215719.7792401433</v>
+        <v>215668.748577959</v>
       </c>
       <c r="L6" t="n">
-        <v>215719.7792401432</v>
+        <v>215668.7485779588</v>
       </c>
       <c r="M6" t="n">
-        <v>42589.28803450335</v>
+        <v>42538.25737231942</v>
       </c>
       <c r="N6" t="n">
-        <v>215719.7792401432</v>
+        <v>215668.7485779588</v>
       </c>
       <c r="O6" t="n">
-        <v>212925.453602098</v>
+        <v>212852.9365056976</v>
       </c>
       <c r="P6" t="n">
-        <v>212925.4536020979</v>
+        <v>212852.9365056977</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26828,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>694.7339978717825</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>27.82210658548001</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>694.7339978717825</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>694.7339978717825</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>27.82210658548001</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>201.982412940523</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>206.2762395340006</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -27447,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,13 +27542,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>106.4821048305511</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
@@ -27593,10 +27593,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>115.7088052046608</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>199.3090946901677</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>201.9824129405227</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>37.45454936137529</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27827,13 +27827,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>18.44967133088761</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>350.5048792244492</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27921,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>350.5048792244486</v>
       </c>
     </row>
     <row r="9">
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>200.7419213204369</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O2" t="n">
-        <v>48.74406945557187</v>
+        <v>73.06155854104179</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,28 +34774,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>357.2118800478176</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="P3" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
+        <v>556.2278131155941</v>
+      </c>
+      <c r="P5" t="n">
         <v>533.7539620806206</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>527.4536661148499</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>415.010189472638</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>73.06155854104179</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,28 +35248,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>158.2737632597936</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="O9" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35418,19 +35418,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>370.0590877408122</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>734.729923815832</v>
       </c>
       <c r="O11" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>654.0493568580272</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>83.23994392538597</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35655,19 +35655,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>805.9999897688718</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35728,22 +35728,22 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.6338360546274</v>
       </c>
       <c r="M15" t="n">
-        <v>654.0493568580272</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>191.6381265752669</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35907,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>238.7351072494338</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36132,19 +36132,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>332.04184444515</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>385.7971050416152</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36375,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104528</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36448,19 +36448,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>369.349378528632</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36606,16 +36606,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>844.8942246391501</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184349</v>
+        <v>690.7922068925909</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>352.7275802401309</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P30" t="n">
         <v>723.4320374126243</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37086,7 +37086,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184349</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37317,19 +37317,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>726.150452031167</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>507.0757444178507</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,13 +37399,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P36" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>771.0743027228281</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37560,7 +37560,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37633,16 +37633,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37788,19 +37788,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>895.4788644908282</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>437.3284175951204</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>760.3041339439036</v>
+        <v>205.0592278086263</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38028,7 +38028,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>776.7350918828479</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38104,13 +38104,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>726.6390748562018</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
